--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\Projects\Python Projects\DemandPredictor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E29E50-605A-4FED-97C7-433F32B77C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48668E24-4341-4B54-A4C2-E15462D72154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Данные" sheetId="4" r:id="rId1"/>
+    <sheet name="Data" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,52 +27,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Время</t>
-  </si>
-  <si>
-    <t>Студии</t>
-  </si>
-  <si>
-    <t>1 комн</t>
-  </si>
-  <si>
-    <t>2 комн</t>
-  </si>
-  <si>
-    <t>3 комн и более</t>
-  </si>
-  <si>
-    <t>ЦА 1</t>
-  </si>
-  <si>
-    <t>ЦА 2</t>
-  </si>
-  <si>
-    <t>ЦА 3</t>
-  </si>
-  <si>
-    <t>ЦА 4</t>
-  </si>
-  <si>
-    <t>Параметр квартир 2</t>
-  </si>
-  <si>
-    <t>Параметр квартир 1</t>
-  </si>
-  <si>
-    <t>Внешний фактор 1</t>
-  </si>
-  <si>
-    <t>Внешний фактор 2</t>
-  </si>
-  <si>
-    <t>Внешний фактор 3</t>
-  </si>
-  <si>
-    <t>Внешний фактор 4</t>
-  </si>
-  <si>
-    <t>Целевые сделки</t>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>TA 1</t>
+  </si>
+  <si>
+    <t>TA 2</t>
+  </si>
+  <si>
+    <t>TA 3</t>
+  </si>
+  <si>
+    <t>TA 4</t>
+  </si>
+  <si>
+    <t>Apartment features 1</t>
+  </si>
+  <si>
+    <t>Apartment features 2</t>
+  </si>
+  <si>
+    <t>External feature 1</t>
+  </si>
+  <si>
+    <t>External feature 2</t>
+  </si>
+  <si>
+    <t>External feature 3</t>
+  </si>
+  <si>
+    <t>External feature 4</t>
+  </si>
+  <si>
+    <t>Studios</t>
+  </si>
+  <si>
+    <t>One room flat</t>
+  </si>
+  <si>
+    <t>Two rooms flat</t>
+  </si>
+  <si>
+    <t>Three and more rooms flat</t>
+  </si>
+  <si>
+    <t>Deals</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,46 +414,46 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" t="s">
-        <v>4</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
@@ -1111,5 +1111,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\Projects\Python Projects\DemandPredictor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48668E24-4341-4B54-A4C2-E15462D72154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8CA8B4-1A77-4714-BC96-E70447EE3D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F17CB2-245D-456C-9DEB-642108B5FB80}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,6 +1109,56 @@
         <v>1700</v>
       </c>
     </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
